--- a/Data/E5.xlsx
+++ b/Data/E5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="StorageMaps" sheetId="25" r:id="rId9"/>
     <sheet name="HourlyVariation" sheetId="22" r:id="rId10"/>
     <sheet name="Scalars" sheetId="23" r:id="rId11"/>
+    <sheet name="Regulation" sheetId="26" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="165">
   <si>
     <t>Coal</t>
   </si>
@@ -520,6 +521,18 @@
   </si>
   <si>
     <t>HS</t>
+  </si>
+  <si>
+    <t>CO2Cap/g</t>
+  </si>
+  <si>
+    <t>CO2Cap/CO2Cap</t>
+  </si>
+  <si>
+    <t>RESCap/g</t>
+  </si>
+  <si>
+    <t>RESCap/RESCap</t>
   </si>
 </sst>
 </file>
@@ -585,7 +598,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -596,6 +609,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1456,6 +1470,63 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE19" sqref="AE19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
@@ -3666,8 +3737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E5.xlsx
+++ b/Data/E5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E5.xlsx
+++ b/Data/E5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -918,7 +918,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,8 +2058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3538,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E5.xlsx
+++ b/Data/E5.xlsx
@@ -2059,7 +2059,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3539,7 +3539,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/E5.xlsx
+++ b/Data/E5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17700" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="2" r:id="rId1"/>
@@ -921,19 +921,19 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>95</v>
       </c>
@@ -941,7 +941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -949,7 +949,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -957,7 +957,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -965,7 +965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -973,7 +973,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -981,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -989,7 +989,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -997,7 +997,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>118</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>56</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>75</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>148</v>
       </c>
@@ -1289,11 +1289,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>120</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1345,7 +1347,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1371,7 +1373,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1436,12 +1438,12 @@
       <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>130</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>131</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1478,9 +1480,9 @@
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>161</v>
       </c>
@@ -1494,7 +1496,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1508,7 +1510,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1533,18 +1535,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.3828125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1567,7 +1569,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1654,19 +1656,19 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.53515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.84375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>132</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
         <v>103</v>
       </c>
@@ -1782,7 +1784,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
         <v>103</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>104</v>
       </c>
@@ -1824,7 +1826,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>104</v>
       </c>
@@ -1844,7 +1846,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>104</v>
       </c>
@@ -1864,7 +1866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>104</v>
       </c>
@@ -1899,12 +1901,12 @@
       <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>142</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -1932,7 +1934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -1960,9 +1962,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -1991,7 +1993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2020,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2062,26 +2064,26 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.53515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.15234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.15234375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.69140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -2178,7 +2180,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2228,7 +2230,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2278,7 +2280,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -2328,7 +2330,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -2530,7 +2532,7 @@
         <v>-0.2857142857142857</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>0.19722222222222222</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2606,7 +2608,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>8.611111111111111E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -2682,7 +2684,7 @@
         <v>0.23888888888888887</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2713,7 +2715,7 @@
         <v>13.888888888888889</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -2744,7 +2746,7 @@
         <v>3.1388888888888888</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>79</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>13.888888888888889</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>80</v>
       </c>
@@ -2806,7 +2808,7 @@
         <v>3.1388888888888888</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H18" t="s">
         <v>71</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H19" t="s">
         <v>73</v>
       </c>
@@ -2836,7 +2838,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>75</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>1.6888888888888887E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H21" t="s">
         <v>77</v>
       </c>
@@ -2866,7 +2868,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H22" t="s">
         <v>79</v>
       </c>
@@ -2881,7 +2883,7 @@
         <v>9.0833333333333339</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H23" t="s">
         <v>80</v>
       </c>
@@ -2896,7 +2898,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H24" t="s">
         <v>81</v>
       </c>
@@ -2911,7 +2913,7 @@
         <v>1.6888888888888887E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H25" t="s">
         <v>82</v>
       </c>
@@ -2936,22 +2938,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3828125" customWidth="1"/>
+    <col min="7" max="7" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>81</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3538,21 +3538,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.53515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -3738,12 +3738,16 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="19.23046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.84375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -3795,7 +3799,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>148</v>
       </c>
